--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/LavaAndAqua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B528C5C3-2377-3D48-801E-6F557D0B081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A613321-BC95-CE48-A34E-5DA4DE016B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28540" yWindow="4400" windowWidth="26880" windowHeight="17440" firstSheet="7" activeTab="20" xr2:uid="{8526E2AF-7541-C248-84F4-0C80968BCD32}"/>
+    <workbookView xWindow="28540" yWindow="4400" windowWidth="26880" windowHeight="17440" activeTab="23" xr2:uid="{8526E2AF-7541-C248-84F4-0C80968BCD32}"/>
   </bookViews>
   <sheets>
     <sheet name="Level_00" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <sheet name="Level_21" sheetId="24" r:id="rId22"/>
     <sheet name="Level_22" sheetId="25" r:id="rId23"/>
     <sheet name="Level_23" sheetId="26" r:id="rId24"/>
-    <sheet name="Level_18 (2)" sheetId="27" r:id="rId25"/>
-    <sheet name="Level_19 (2)" sheetId="28" r:id="rId26"/>
-    <sheet name="Level_24" sheetId="1" r:id="rId27"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -84,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="102">
   <si>
     <t>PlayerStart</t>
   </si>
@@ -376,6 +373,21 @@
   <si>
     <t>5,5,</t>
   </si>
+  <si>
+    <t>Green Switch</t>
+  </si>
+  <si>
+    <t>Green Door</t>
+  </si>
+  <si>
+    <t>7,8,</t>
+  </si>
+  <si>
+    <t>6,7,</t>
+  </si>
+  <si>
+    <t>13,8,</t>
+  </si>
 </sst>
 </file>
 
@@ -430,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +515,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -516,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,6 +631,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18837,8 +18858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35990B1-F410-554F-BC35-6C8089F60006}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19044,8 +19065,8 @@
       <c r="I4" s="8">
         <v>0</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
+      <c r="J4" s="34">
+        <v>236</v>
       </c>
       <c r="K4" s="32">
         <v>238</v>
@@ -19070,7 +19091,7 @@
       </c>
       <c r="S4" t="str">
         <f t="shared" si="0"/>
-        <v>255,255,0,0,0,0,0,0,0,238,239,239,239,238,243,255,</v>
+        <v>255,255,0,0,0,0,0,0,236,238,239,239,239,238,243,255,</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -19167,8 +19188,8 @@
       <c r="L6" s="2">
         <v>255</v>
       </c>
-      <c r="M6" s="8">
-        <v>0</v>
+      <c r="M6" s="34">
+        <v>236</v>
       </c>
       <c r="N6" s="2">
         <v>255</v>
@@ -19184,7 +19205,7 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,255,255,0,255,255,255,255,</v>
+        <v>255,0,0,0,0,0,0,0,0,255,255,236,255,255,255,255,</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -19197,8 +19218,8 @@
       <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
+      <c r="D7" s="34">
+        <v>235</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -19241,7 +19262,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,251,0,0,0,0,0,0,250,255,</v>
+        <v>255,0,235,0,0,0,0,251,0,0,0,0,0,0,250,255,</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -19685,9 +19706,13 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="34">
+        <v>235</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -19710,9 +19735,13 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="34">
+        <v>236</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
       <c r="H19" s="11"/>
@@ -20275,7 +20304,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:P4"/>
+      <selection activeCell="C14" sqref="C14:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20403,8 +20432,8 @@
       <c r="B3" s="2">
         <v>255</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
+      <c r="C3" s="2">
+        <v>255</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -20412,14 +20441,14 @@
       <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
+      <c r="F3" s="2">
+        <v>255</v>
+      </c>
+      <c r="G3" s="22">
+        <v>250</v>
+      </c>
+      <c r="H3" s="2">
+        <v>255</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -20430,8 +20459,8 @@
       <c r="K3" s="8">
         <v>0</v>
       </c>
-      <c r="L3" s="8">
-        <v>0</v>
+      <c r="L3" s="2">
+        <v>255</v>
       </c>
       <c r="M3" s="8">
         <v>0</v>
@@ -20442,15 +20471,15 @@
       <c r="O3" s="8">
         <v>0</v>
       </c>
-      <c r="P3" s="8">
-        <v>0</v>
+      <c r="P3" s="2">
+        <v>255</v>
       </c>
       <c r="Q3" s="2">
         <v>255</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" ref="S3:S12" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B3:Q3),",")</f>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,0,0,255,250,255,0,0,0,255,0,0,0,255,255,</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -20460,23 +20489,23 @@
       <c r="B4" s="2">
         <v>255</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="C4" s="2">
+        <v>255</v>
+      </c>
+      <c r="D4" s="19">
+        <v>251</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
+      <c r="F4" s="2">
+        <v>255</v>
+      </c>
+      <c r="G4" s="22">
+        <v>250</v>
+      </c>
+      <c r="H4" s="28">
+        <v>145</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
@@ -20487,27 +20516,27 @@
       <c r="K4" s="8">
         <v>0</v>
       </c>
-      <c r="L4" s="8">
-        <v>0</v>
+      <c r="L4" s="28">
+        <v>150</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
+      <c r="N4" s="23">
+        <v>241</v>
       </c>
       <c r="O4" s="8">
         <v>0</v>
       </c>
-      <c r="P4" s="8">
-        <v>0</v>
+      <c r="P4" s="2">
+        <v>255</v>
       </c>
       <c r="Q4" s="2">
         <v>255</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,251,0,255,250,145,0,0,0,150,0,241,0,255,255,</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -20517,8 +20546,8 @@
       <c r="B5" s="2">
         <v>255</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
+      <c r="C5" s="2">
+        <v>255</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -20526,14 +20555,14 @@
       <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
+      <c r="F5" s="2">
+        <v>255</v>
+      </c>
+      <c r="G5" s="22">
+        <v>250</v>
+      </c>
+      <c r="H5" s="2">
+        <v>255</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
@@ -20544,8 +20573,8 @@
       <c r="K5" s="8">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
+      <c r="L5" s="2">
+        <v>255</v>
       </c>
       <c r="M5" s="8">
         <v>0</v>
@@ -20556,15 +20585,15 @@
       <c r="O5" s="8">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
-        <v>0</v>
+      <c r="P5" s="2">
+        <v>255</v>
       </c>
       <c r="Q5" s="2">
         <v>255</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,0,0,255,250,255,0,0,0,255,0,0,0,255,255,</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -20574,54 +20603,54 @@
       <c r="B6" s="2">
         <v>255</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
+      <c r="C6" s="2">
+        <v>255</v>
+      </c>
+      <c r="D6" s="34">
+        <v>235</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
+      <c r="F6" s="2">
+        <v>255</v>
+      </c>
+      <c r="G6" s="2">
+        <v>255</v>
+      </c>
+      <c r="H6" s="2">
+        <v>255</v>
+      </c>
+      <c r="I6" s="34">
+        <v>236</v>
+      </c>
+      <c r="J6" s="2">
+        <v>255</v>
+      </c>
+      <c r="K6" s="2">
+        <v>255</v>
+      </c>
+      <c r="L6" s="2">
+        <v>255</v>
+      </c>
+      <c r="M6" s="2">
+        <v>255</v>
+      </c>
+      <c r="N6" s="2">
+        <v>255</v>
+      </c>
+      <c r="O6" s="2">
+        <v>255</v>
+      </c>
+      <c r="P6" s="2">
+        <v>255</v>
       </c>
       <c r="Q6" s="2">
         <v>255</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,235,0,255,255,255,236,255,255,255,255,255,255,255,255,</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -20631,8 +20660,8 @@
       <c r="B7" s="2">
         <v>255</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
+      <c r="C7" s="2">
+        <v>255</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -20640,11 +20669,11 @@
       <c r="E7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
+      <c r="F7" s="2">
+        <v>255</v>
+      </c>
+      <c r="G7" s="2">
+        <v>255</v>
       </c>
       <c r="H7" s="8">
         <v>0</v>
@@ -20655,8 +20684,8 @@
       <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
+      <c r="K7" s="2">
+        <v>255</v>
       </c>
       <c r="L7" s="8">
         <v>0</v>
@@ -20670,15 +20699,15 @@
       <c r="O7" s="8">
         <v>0</v>
       </c>
-      <c r="P7" s="8">
-        <v>0</v>
+      <c r="P7" s="2">
+        <v>255</v>
       </c>
       <c r="Q7" s="2">
         <v>255</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,0,0,255,255,0,0,0,255,0,0,0,0,255,255,</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -20688,54 +20717,54 @@
       <c r="B8" s="2">
         <v>255</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
+      <c r="C8" s="2">
+        <v>255</v>
+      </c>
+      <c r="D8" s="34">
+        <v>236</v>
+      </c>
+      <c r="E8" s="2">
+        <v>255</v>
+      </c>
+      <c r="F8" s="2">
+        <v>255</v>
+      </c>
+      <c r="G8" s="2">
+        <v>255</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
+      <c r="I8" s="19">
+        <v>251</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
+      <c r="K8" s="2">
+        <v>255</v>
       </c>
       <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
+      <c r="M8" s="2">
+        <v>255</v>
+      </c>
+      <c r="N8" s="2">
+        <v>255</v>
       </c>
       <c r="O8" s="8">
         <v>0</v>
       </c>
-      <c r="P8" s="8">
-        <v>0</v>
+      <c r="P8" s="2">
+        <v>255</v>
       </c>
       <c r="Q8" s="2">
         <v>255</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,236,255,255,255,0,251,0,255,0,255,255,0,255,255,</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -20745,8 +20774,8 @@
       <c r="B9" s="2">
         <v>255</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
+      <c r="C9" s="2">
+        <v>255</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -20757,8 +20786,8 @@
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
+      <c r="G9" s="2">
+        <v>255</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -20769,30 +20798,30 @@
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="8">
-        <v>0</v>
+      <c r="K9" s="2">
+        <v>255</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
       </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
+      <c r="M9" s="2">
+        <v>255</v>
+      </c>
+      <c r="N9" s="2">
+        <v>255</v>
       </c>
       <c r="O9" s="8">
         <v>0</v>
       </c>
-      <c r="P9" s="8">
-        <v>0</v>
+      <c r="P9" s="2">
+        <v>255</v>
       </c>
       <c r="Q9" s="2">
         <v>255</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,0,0,0,255,0,0,0,255,0,255,255,0,255,255,</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -20802,14 +20831,14 @@
       <c r="B10" s="2">
         <v>255</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
+      <c r="C10" s="2">
+        <v>255</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
+      <c r="E10" s="34">
+        <v>235</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -20826,30 +20855,30 @@
       <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
+      <c r="K10" s="2">
+        <v>255</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
+      <c r="M10" s="2">
+        <v>255</v>
+      </c>
+      <c r="N10" s="2">
+        <v>255</v>
       </c>
       <c r="O10" s="8">
         <v>0</v>
       </c>
-      <c r="P10" s="8">
-        <v>0</v>
+      <c r="P10" s="2">
+        <v>255</v>
       </c>
       <c r="Q10" s="2">
         <v>255</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,0,235,0,0,0,0,0,255,0,255,255,0,255,255,</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -20859,8 +20888,8 @@
       <c r="B11" s="2">
         <v>255</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
+      <c r="C11" s="2">
+        <v>255</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -20871,8 +20900,8 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
+      <c r="G11" s="2">
+        <v>255</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -20883,8 +20912,8 @@
       <c r="J11" s="8">
         <v>0</v>
       </c>
-      <c r="K11" s="8">
-        <v>0</v>
+      <c r="K11" s="2">
+        <v>255</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -20895,18 +20924,18 @@
       <c r="N11" s="8">
         <v>0</v>
       </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
+      <c r="O11" s="33">
+        <v>239</v>
+      </c>
+      <c r="P11" s="2">
+        <v>255</v>
       </c>
       <c r="Q11" s="2">
         <v>255</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,0,0,0,255,0,0,0,255,0,0,0,239,255,255,</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -20991,7 +21020,7 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="21">
+      <c r="C14" s="33">
         <v>239</v>
       </c>
       <c r="D14" s="6"/>
@@ -21051,7 +21080,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -21085,7 +21114,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -21122,9 +21151,13 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="34">
+        <v>235</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -21147,9 +21180,13 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="34">
+        <v>236</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
       <c r="H19" s="11"/>
@@ -21289,9 +21326,13 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="32">
+        <v>238</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>93</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -21708,7 +21749,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:P4"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21899,8 +21940,8 @@
       <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
+      <c r="E4" s="20">
+        <v>243</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -21940,7 +21981,7 @@
       </c>
       <c r="S4" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,0,243,0,0,0,0,0,0,0,0,0,0,0,255,</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -21953,14 +21994,14 @@
       <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
+      <c r="D5" s="2">
+        <v>255</v>
+      </c>
+      <c r="E5" s="2">
+        <v>255</v>
+      </c>
+      <c r="F5" s="2">
+        <v>255</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -21971,20 +22012,20 @@
       <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
+      <c r="J5" s="23">
+        <v>242</v>
       </c>
       <c r="K5" s="8">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
+      <c r="L5" s="2">
+        <v>255</v>
+      </c>
+      <c r="M5" s="2">
+        <v>255</v>
+      </c>
+      <c r="N5" s="2">
+        <v>255</v>
       </c>
       <c r="O5" s="8">
         <v>0</v>
@@ -21997,7 +22038,7 @@
       </c>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,255,255,255,0,0,0,242,0,255,255,255,0,0,255,</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -22007,17 +22048,17 @@
       <c r="B6" s="2">
         <v>255</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
+      <c r="C6" s="28">
+        <v>104</v>
+      </c>
+      <c r="D6" s="34">
+        <v>236</v>
+      </c>
+      <c r="E6" s="33">
+        <v>239</v>
+      </c>
+      <c r="F6" s="2">
+        <v>255</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -22034,27 +22075,27 @@
       <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
+      <c r="L6" s="2">
+        <v>255</v>
+      </c>
+      <c r="M6" s="33">
+        <v>239</v>
+      </c>
+      <c r="N6" s="28">
+        <v>110</v>
+      </c>
+      <c r="O6" s="34">
+        <v>236</v>
+      </c>
+      <c r="P6" s="2">
+        <v>255</v>
       </c>
       <c r="Q6" s="2">
         <v>255</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,104,236,239,255,0,0,0,0,0,255,239,110,236,255,255,</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -22064,23 +22105,23 @@
       <c r="B7" s="2">
         <v>255</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
+      <c r="C7" s="22">
+        <v>250</v>
+      </c>
+      <c r="D7" s="2">
+        <v>255</v>
+      </c>
+      <c r="E7" s="2">
+        <v>255</v>
+      </c>
+      <c r="F7" s="2">
+        <v>255</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
+      <c r="H7" s="34">
+        <v>235</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -22088,30 +22129,30 @@
       <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
+      <c r="K7" s="2">
+        <v>255</v>
+      </c>
+      <c r="L7" s="2">
+        <v>255</v>
+      </c>
+      <c r="M7" s="2">
+        <v>255</v>
+      </c>
+      <c r="N7" s="2">
+        <v>255</v>
+      </c>
+      <c r="O7" s="28">
+        <v>104</v>
+      </c>
+      <c r="P7" s="22">
+        <v>250</v>
       </c>
       <c r="Q7" s="2">
         <v>255</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,250,255,255,255,0,235,0,0,255,255,255,255,104,250,255,</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -22121,17 +22162,17 @@
       <c r="B8" s="2">
         <v>255</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
+      <c r="C8" s="34">
+        <v>236</v>
+      </c>
+      <c r="D8" s="28">
+        <v>102</v>
+      </c>
+      <c r="E8" s="33">
+        <v>239</v>
+      </c>
+      <c r="F8" s="2">
+        <v>255</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -22145,30 +22186,30 @@
       <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
+      <c r="K8" s="2">
+        <v>255</v>
+      </c>
+      <c r="L8" s="33">
+        <v>239</v>
+      </c>
+      <c r="M8" s="28">
+        <v>104</v>
+      </c>
+      <c r="N8" s="34">
+        <v>236</v>
+      </c>
+      <c r="O8" s="28">
+        <v>112</v>
+      </c>
+      <c r="P8" s="2">
+        <v>255</v>
       </c>
       <c r="Q8" s="2">
         <v>255</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,236,102,239,255,0,0,0,0,255,239,104,236,112,255,255,</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -22181,14 +22222,14 @@
       <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
+      <c r="D9" s="2">
+        <v>255</v>
+      </c>
+      <c r="E9" s="2">
+        <v>255</v>
+      </c>
+      <c r="F9" s="2">
+        <v>255</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -22202,17 +22243,17 @@
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
+      <c r="K9" s="2">
+        <v>255</v>
+      </c>
+      <c r="L9" s="2">
+        <v>255</v>
+      </c>
+      <c r="M9" s="2">
+        <v>255</v>
+      </c>
+      <c r="N9" s="2">
+        <v>255</v>
       </c>
       <c r="O9" s="8">
         <v>0</v>
@@ -22225,7 +22266,7 @@
       </c>
       <c r="S9" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,255,255,255,0,0,0,0,255,255,255,255,0,0,255,</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -22265,8 +22306,8 @@
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
-        <v>0</v>
+      <c r="M10" s="20">
+        <v>243</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
@@ -22282,7 +22323,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,0,0,0,0,0,0,0,0,0,243,0,0,0,255,</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -22424,7 +22465,7 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="21">
+      <c r="C14" s="33">
         <v>239</v>
       </c>
       <c r="D14" s="6"/>
@@ -22484,7 +22525,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -22518,7 +22559,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -22555,9 +22596,13 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="34">
+        <v>235</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -22580,9 +22625,13 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="34">
+        <v>236</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
       <c r="H19" s="11"/>
@@ -22722,9 +22771,13 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="32">
+        <v>238</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>93</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -23140,8 +23193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655026EB-4B17-194F-821D-685444497D8B}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23269,14 +23322,14 @@
       <c r="B3" s="2">
         <v>255</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
+      <c r="C3" s="32">
+        <v>238</v>
+      </c>
+      <c r="D3" s="22">
+        <v>250</v>
+      </c>
+      <c r="E3" s="32">
+        <v>238</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -23308,15 +23361,15 @@
       <c r="O3" s="8">
         <v>0</v>
       </c>
-      <c r="P3" s="8">
-        <v>0</v>
+      <c r="P3" s="34">
+        <v>236</v>
       </c>
       <c r="Q3" s="2">
         <v>255</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" ref="S3:S12" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B3:Q3),",")</f>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,238,250,238,0,0,0,0,0,0,0,0,0,0,236,255,</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -23329,14 +23382,14 @@
       <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="D4" s="34">
+        <v>236</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
+      <c r="F4" s="2">
+        <v>255</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -23362,18 +23415,18 @@
       <c r="N4" s="8">
         <v>0</v>
       </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
+      <c r="O4" s="2">
+        <v>255</v>
+      </c>
+      <c r="P4" s="22">
+        <v>250</v>
       </c>
       <c r="Q4" s="2">
         <v>255</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,236,0,255,0,0,0,0,0,0,0,0,255,250,255,</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -23386,14 +23439,14 @@
       <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
+      <c r="D5" s="23">
+        <v>242</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
+      <c r="F5" s="2">
+        <v>255</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -23401,36 +23454,36 @@
       <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
+      <c r="I5" s="2">
+        <v>255</v>
+      </c>
+      <c r="J5" s="2">
+        <v>255</v>
+      </c>
+      <c r="K5" s="2">
+        <v>255</v>
+      </c>
+      <c r="L5" s="2">
+        <v>255</v>
+      </c>
+      <c r="M5" s="2">
+        <v>255</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
       </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
+      <c r="O5" s="2">
+        <v>255</v>
+      </c>
+      <c r="P5" s="2">
+        <v>255</v>
       </c>
       <c r="Q5" s="2">
         <v>255</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,242,0,255,0,0,255,255,255,255,255,0,255,255,255,</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -23449,8 +23502,8 @@
       <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
+      <c r="F6" s="2">
+        <v>255</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -23458,8 +23511,8 @@
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
+      <c r="I6" s="2">
+        <v>255</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -23470,24 +23523,24 @@
       <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="M6" s="8">
-        <v>0</v>
+      <c r="M6" s="2">
+        <v>255</v>
       </c>
       <c r="N6" s="8">
         <v>0</v>
       </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
+      <c r="O6" s="2">
+        <v>255</v>
+      </c>
+      <c r="P6" s="2">
+        <v>255</v>
       </c>
       <c r="Q6" s="2">
         <v>255</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,0,0,255,0,0,255,0,0,0,255,0,255,255,255,</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -23497,17 +23550,17 @@
       <c r="B7" s="2">
         <v>255</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
+      <c r="C7" s="2">
+        <v>255</v>
+      </c>
+      <c r="D7" s="2">
+        <v>255</v>
+      </c>
+      <c r="E7" s="2">
+        <v>255</v>
+      </c>
+      <c r="F7" s="2">
+        <v>255</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -23515,36 +23568,36 @@
       <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
-        <v>0</v>
+      <c r="I7" s="19">
+        <v>251</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
+      <c r="K7" s="2">
+        <v>255</v>
       </c>
       <c r="L7" s="8">
         <v>0</v>
       </c>
-      <c r="M7" s="8">
-        <v>0</v>
+      <c r="M7" s="34">
+        <v>235</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
       </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
+      <c r="O7" s="34">
+        <v>236</v>
+      </c>
+      <c r="P7" s="20">
+        <v>243</v>
       </c>
       <c r="Q7" s="2">
         <v>255</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,255,255,255,0,0,251,0,255,0,235,0,236,243,255,</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -23572,36 +23625,36 @@
       <c r="H8" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
+      <c r="I8" s="2">
+        <v>255</v>
+      </c>
+      <c r="J8" s="2">
+        <v>255</v>
+      </c>
+      <c r="K8" s="2">
+        <v>255</v>
+      </c>
+      <c r="L8" s="2">
+        <v>255</v>
+      </c>
+      <c r="M8" s="2">
+        <v>255</v>
+      </c>
+      <c r="N8" s="2">
+        <v>255</v>
+      </c>
+      <c r="O8" s="2">
+        <v>255</v>
+      </c>
+      <c r="P8" s="2">
+        <v>255</v>
       </c>
       <c r="Q8" s="2">
         <v>255</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,0,0,0,0,0,255,255,255,255,255,255,255,255,255,</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -23614,8 +23667,8 @@
       <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
+      <c r="D9" s="19">
+        <v>251</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -23635,8 +23688,8 @@
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="8">
-        <v>0</v>
+      <c r="K9" s="34">
+        <v>235</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
@@ -23658,7 +23711,7 @@
       </c>
       <c r="S9" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,251,0,0,0,0,0,0,235,0,0,0,0,0,255,</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -23686,20 +23739,20 @@
       <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="8">
-        <v>0</v>
+      <c r="I10" s="34">
+        <v>235</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
+      <c r="K10" s="34">
+        <v>235</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
-        <v>0</v>
+      <c r="M10" s="34">
+        <v>235</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
@@ -23715,7 +23768,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,0,0,0,0,0,0,235,0,235,0,235,0,0,0,255,</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -23725,14 +23778,14 @@
       <c r="B11" s="2">
         <v>255</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
+      <c r="C11" s="2">
+        <v>255</v>
+      </c>
+      <c r="D11" s="2">
+        <v>255</v>
+      </c>
+      <c r="E11" s="2">
+        <v>255</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -23743,8 +23796,8 @@
       <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="8">
-        <v>0</v>
+      <c r="I11" s="34">
+        <v>235</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
@@ -23755,8 +23808,8 @@
       <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11" s="8">
-        <v>0</v>
+      <c r="M11" s="34">
+        <v>235</v>
       </c>
       <c r="N11" s="8">
         <v>0</v>
@@ -23772,7 +23825,7 @@
       </c>
       <c r="S11" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
+        <v>255,255,255,255,0,0,0,235,0,0,0,235,0,0,0,255,</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -23857,7 +23910,7 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="21">
+      <c r="C14" s="33">
         <v>239</v>
       </c>
       <c r="D14" s="6"/>
@@ -23917,7 +23970,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -23951,7 +24004,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -23988,9 +24041,13 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="34">
+        <v>235</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -24013,9 +24070,13 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="34">
+        <v>236</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
       <c r="H19" s="11"/>
@@ -24155,9 +24216,13 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="32">
+        <v>238</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>93</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -24562,3895 +24627,6 @@
       <c r="K64" s="27" t="s">
         <v>71</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C493CD80-75CB-014E-8B5C-CB0809528303}">
-  <dimension ref="A1:T64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="17" width="4.83203125" customWidth="1"/>
-    <col min="19" max="36" width="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>15</v>
-      </c>
-      <c r="S1" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="S1" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A1),"]"), "[] = {")</f>
-        <v>uint8_t Level_18 (2)[] = {</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>255</v>
-      </c>
-      <c r="C2" s="2">
-        <v>255</v>
-      </c>
-      <c r="D2" s="2">
-        <v>255</v>
-      </c>
-      <c r="E2" s="2">
-        <v>255</v>
-      </c>
-      <c r="F2" s="2">
-        <v>255</v>
-      </c>
-      <c r="G2" s="2">
-        <v>255</v>
-      </c>
-      <c r="H2" s="2">
-        <v>255</v>
-      </c>
-      <c r="I2" s="2">
-        <v>255</v>
-      </c>
-      <c r="J2" s="2">
-        <v>255</v>
-      </c>
-      <c r="K2" s="2">
-        <v>255</v>
-      </c>
-      <c r="L2" s="2">
-        <v>255</v>
-      </c>
-      <c r="M2" s="2">
-        <v>255</v>
-      </c>
-      <c r="N2" s="2">
-        <v>255</v>
-      </c>
-      <c r="O2" s="2">
-        <v>255</v>
-      </c>
-      <c r="P2" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>255</v>
-      </c>
-      <c r="S2" t="str">
-        <f>_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B2:Q2),",")</f>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>255</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>255</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S12" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B3:Q3),",")</f>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>255</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>255</v>
-      </c>
-      <c r="S4" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>255</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>255</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>255</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>255</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>255</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>255</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>255</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>255</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>255</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>255</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>255</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>255</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>255</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>255</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>255</v>
-      </c>
-      <c r="C12" s="2">
-        <v>255</v>
-      </c>
-      <c r="D12" s="2">
-        <v>255</v>
-      </c>
-      <c r="E12" s="2">
-        <v>255</v>
-      </c>
-      <c r="F12" s="2">
-        <v>255</v>
-      </c>
-      <c r="G12" s="2">
-        <v>255</v>
-      </c>
-      <c r="H12" s="2">
-        <v>255</v>
-      </c>
-      <c r="I12" s="2">
-        <v>255</v>
-      </c>
-      <c r="J12" s="2">
-        <v>255</v>
-      </c>
-      <c r="K12" s="2">
-        <v>255</v>
-      </c>
-      <c r="L12" s="2">
-        <v>255</v>
-      </c>
-      <c r="M12" s="2">
-        <v>255</v>
-      </c>
-      <c r="N12" s="2">
-        <v>255</v>
-      </c>
-      <c r="O12" s="2">
-        <v>255</v>
-      </c>
-      <c r="P12" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>255</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="0"/>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="21">
-        <v>239</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="28">
-        <v>100</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="S14" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A14),"]"), "_Details[] = {")</f>
-        <v>uint8_t Level_18 (2)_Details[] = {</v>
-      </c>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="23">
-        <v>241</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="28">
-        <v>101</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="23">
-        <v>242</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="28">
-        <v>102</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="20">
-        <v>243</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="28">
-        <v>103</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="28">
-        <v>104</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="7"/>
-      <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="28">
-        <v>105</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="28">
-        <v>106</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="22">
-        <v>250</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="28">
-        <v>107</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="19">
-        <v>251</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="28">
-        <v>108</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="30">
-        <v>252</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="28">
-        <v>109</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="28">
-        <v>110</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="28">
-        <v>111</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
-      <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="28">
-        <v>112</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="28">
-        <v>113</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="28">
-        <v>114</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I29" s="28">
-        <v>115</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I30" s="28">
-        <v>116</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I31" s="28">
-        <v>117</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I32" s="28">
-        <v>118</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I33" s="28">
-        <v>119</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I34" s="28">
-        <v>120</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I35" s="28">
-        <v>121</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I36" s="28">
-        <v>122</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I37" s="28">
-        <v>123</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I38" s="28">
-        <v>124</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I39" s="28">
-        <v>125</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I40" s="28">
-        <v>126</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I41" s="28">
-        <v>127</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I42" s="28">
-        <v>128</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I43" s="28">
-        <v>129</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I44" s="28">
-        <v>130</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I45" s="28">
-        <v>131</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I46" s="28">
-        <v>132</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I47" s="28">
-        <v>133</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I48" s="28">
-        <v>134</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I49" s="28">
-        <v>135</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I50" s="28">
-        <v>136</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I51" s="28">
-        <v>137</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I52" s="28">
-        <v>138</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I53" s="28">
-        <v>139</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I54" s="28">
-        <v>140</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I55" s="28">
-        <v>141</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I56" s="28">
-        <v>142</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I57" s="28">
-        <v>143</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I58" s="28">
-        <v>144</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I59" s="28">
-        <v>145</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I60" s="28">
-        <v>146</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I61" s="28">
-        <v>147</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I62" s="28">
-        <v>148</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I63" s="28">
-        <v>149</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I64" s="28">
-        <v>150</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4C3F7D-B999-EC4A-8FAC-F95B497BA7F7}">
-  <dimension ref="A1:T64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="17" width="4.83203125" customWidth="1"/>
-    <col min="19" max="36" width="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>15</v>
-      </c>
-      <c r="S1" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="S1" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A1),"]"), "[] = {")</f>
-        <v>uint8_t Level_19 (2)[] = {</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>255</v>
-      </c>
-      <c r="C2" s="2">
-        <v>255</v>
-      </c>
-      <c r="D2" s="2">
-        <v>255</v>
-      </c>
-      <c r="E2" s="2">
-        <v>255</v>
-      </c>
-      <c r="F2" s="2">
-        <v>255</v>
-      </c>
-      <c r="G2" s="2">
-        <v>255</v>
-      </c>
-      <c r="H2" s="2">
-        <v>255</v>
-      </c>
-      <c r="I2" s="2">
-        <v>255</v>
-      </c>
-      <c r="J2" s="2">
-        <v>255</v>
-      </c>
-      <c r="K2" s="2">
-        <v>255</v>
-      </c>
-      <c r="L2" s="2">
-        <v>255</v>
-      </c>
-      <c r="M2" s="2">
-        <v>255</v>
-      </c>
-      <c r="N2" s="2">
-        <v>255</v>
-      </c>
-      <c r="O2" s="2">
-        <v>255</v>
-      </c>
-      <c r="P2" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>255</v>
-      </c>
-      <c r="S2" t="str">
-        <f>_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B2:Q2),",")</f>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>255</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>255</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S12" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B3:Q3),",")</f>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>255</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>255</v>
-      </c>
-      <c r="S4" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>255</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>255</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>255</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>255</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>255</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>255</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>255</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>255</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>255</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>255</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>255</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>255</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>255</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>255</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,0,255,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>255</v>
-      </c>
-      <c r="C12" s="2">
-        <v>255</v>
-      </c>
-      <c r="D12" s="2">
-        <v>255</v>
-      </c>
-      <c r="E12" s="2">
-        <v>255</v>
-      </c>
-      <c r="F12" s="2">
-        <v>255</v>
-      </c>
-      <c r="G12" s="2">
-        <v>255</v>
-      </c>
-      <c r="H12" s="2">
-        <v>255</v>
-      </c>
-      <c r="I12" s="2">
-        <v>255</v>
-      </c>
-      <c r="J12" s="2">
-        <v>255</v>
-      </c>
-      <c r="K12" s="2">
-        <v>255</v>
-      </c>
-      <c r="L12" s="2">
-        <v>255</v>
-      </c>
-      <c r="M12" s="2">
-        <v>255</v>
-      </c>
-      <c r="N12" s="2">
-        <v>255</v>
-      </c>
-      <c r="O12" s="2">
-        <v>255</v>
-      </c>
-      <c r="P12" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>255</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="0"/>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="21">
-        <v>239</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="28">
-        <v>100</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="S14" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A14),"]"), "_Details[] = {")</f>
-        <v>uint8_t Level_19 (2)_Details[] = {</v>
-      </c>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="23">
-        <v>241</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="28">
-        <v>101</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="23">
-        <v>242</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="28">
-        <v>102</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="20">
-        <v>243</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="28">
-        <v>103</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="28">
-        <v>104</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="7"/>
-      <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="28">
-        <v>105</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="28">
-        <v>106</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="22">
-        <v>250</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="28">
-        <v>107</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="19">
-        <v>251</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="28">
-        <v>108</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="30">
-        <v>252</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="28">
-        <v>109</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="28">
-        <v>110</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="28">
-        <v>111</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
-      <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="28">
-        <v>112</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="28">
-        <v>113</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="28">
-        <v>114</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I29" s="28">
-        <v>115</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I30" s="28">
-        <v>116</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I31" s="28">
-        <v>117</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I32" s="28">
-        <v>118</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I33" s="28">
-        <v>119</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I34" s="28">
-        <v>120</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I35" s="28">
-        <v>121</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I36" s="28">
-        <v>122</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I37" s="28">
-        <v>123</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I38" s="28">
-        <v>124</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I39" s="28">
-        <v>125</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I40" s="28">
-        <v>126</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I41" s="28">
-        <v>127</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I42" s="28">
-        <v>128</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I43" s="28">
-        <v>129</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I44" s="28">
-        <v>130</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I45" s="28">
-        <v>131</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I46" s="28">
-        <v>132</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I47" s="28">
-        <v>133</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I48" s="28">
-        <v>134</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I49" s="28">
-        <v>135</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I50" s="28">
-        <v>136</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I51" s="28">
-        <v>137</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I52" s="28">
-        <v>138</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I53" s="28">
-        <v>139</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I54" s="28">
-        <v>140</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I55" s="28">
-        <v>141</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I56" s="28">
-        <v>142</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I57" s="28">
-        <v>143</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I58" s="28">
-        <v>144</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I59" s="28">
-        <v>145</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I60" s="28">
-        <v>146</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I61" s="28">
-        <v>147</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I62" s="28">
-        <v>148</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I63" s="28">
-        <v>149</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I64" s="28">
-        <v>150</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABE4EC-6BDB-2E48-BFBF-5849CB027EC9}">
-  <dimension ref="A1:T27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:S31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="17" width="4.83203125" customWidth="1"/>
-    <col min="19" max="36" width="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>15</v>
-      </c>
-      <c r="S1" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="S1" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A1),"]"), "[] = {")</f>
-        <v>uint8_t Level_24[] = {</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>255</v>
-      </c>
-      <c r="S2" t="str">
-        <f>_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B2:Q2),",")</f>
-        <v>0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,255,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8">
-        <v>254</v>
-      </c>
-      <c r="D3" s="8">
-        <v>253</v>
-      </c>
-      <c r="E3" s="8">
-        <v>254</v>
-      </c>
-      <c r="F3" s="8">
-        <v>253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>254</v>
-      </c>
-      <c r="H3" s="11">
-        <v>252</v>
-      </c>
-      <c r="I3" s="8">
-        <v>254</v>
-      </c>
-      <c r="J3" s="8">
-        <v>253</v>
-      </c>
-      <c r="K3" s="8">
-        <v>254</v>
-      </c>
-      <c r="L3" s="8">
-        <v>253</v>
-      </c>
-      <c r="M3" s="8">
-        <v>254</v>
-      </c>
-      <c r="N3" s="8">
-        <v>253</v>
-      </c>
-      <c r="O3" s="8">
-        <v>254</v>
-      </c>
-      <c r="P3" s="8">
-        <v>253</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>255</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S12" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B3:Q3),",")</f>
-        <v>3,254,253,254,253,254,252,254,253,254,253,254,253,254,253,255,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8">
-        <v>253</v>
-      </c>
-      <c r="D4" s="8">
-        <v>254</v>
-      </c>
-      <c r="E4" s="8">
-        <v>253</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8">
-        <v>253</v>
-      </c>
-      <c r="H4" s="8">
-        <v>254</v>
-      </c>
-      <c r="I4" s="8">
-        <v>253</v>
-      </c>
-      <c r="J4" s="8">
-        <v>254</v>
-      </c>
-      <c r="K4" s="8">
-        <v>253</v>
-      </c>
-      <c r="L4" s="8">
-        <v>254</v>
-      </c>
-      <c r="M4" s="8">
-        <v>253</v>
-      </c>
-      <c r="N4" s="8">
-        <v>254</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3</v>
-      </c>
-      <c r="P4" s="8">
-        <v>254</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>255</v>
-      </c>
-      <c r="S4" t="str">
-        <f t="shared" si="0"/>
-        <v>3,253,254,253,3,253,254,253,254,253,254,253,254,3,254,255,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>254</v>
-      </c>
-      <c r="D5" s="8">
-        <v>253</v>
-      </c>
-      <c r="E5" s="8">
-        <v>254</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="8">
-        <v>254</v>
-      </c>
-      <c r="H5" s="8">
-        <v>253</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3</v>
-      </c>
-      <c r="N5" s="8">
-        <v>253</v>
-      </c>
-      <c r="O5" s="2">
-        <v>255</v>
-      </c>
-      <c r="P5" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>255</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="0"/>
-        <v>3,254,253,254,3,254,253,0,1,1,1,3,253,255,255,255,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>253</v>
-      </c>
-      <c r="D6" s="8">
-        <v>254</v>
-      </c>
-      <c r="E6" s="8">
-        <v>253</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8">
-        <v>253</v>
-      </c>
-      <c r="H6" s="8">
-        <v>254</v>
-      </c>
-      <c r="I6" s="2">
-        <v>19</v>
-      </c>
-      <c r="J6" s="8">
-        <v>254</v>
-      </c>
-      <c r="K6" s="8">
-        <v>253</v>
-      </c>
-      <c r="L6" s="8">
-        <v>254</v>
-      </c>
-      <c r="M6" s="2">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8">
-        <v>254</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>255</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="0"/>
-        <v>3,253,254,253,3,253,254,19,254,253,254,19,254,1,1,255,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8">
-        <v>254</v>
-      </c>
-      <c r="H7" s="8">
-        <v>253</v>
-      </c>
-      <c r="I7" s="8">
-        <v>254</v>
-      </c>
-      <c r="J7" s="8">
-        <v>253</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="8">
-        <v>253</v>
-      </c>
-      <c r="M7" s="8">
-        <v>254</v>
-      </c>
-      <c r="N7" s="8">
-        <v>253</v>
-      </c>
-      <c r="O7" s="8">
-        <v>254</v>
-      </c>
-      <c r="P7" s="8">
-        <v>253</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>255</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="0"/>
-        <v>0,1,1,1,19,254,253,254,253,3,253,254,253,254,253,255,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8">
-        <v>253</v>
-      </c>
-      <c r="D8" s="8">
-        <v>254</v>
-      </c>
-      <c r="E8" s="8">
-        <v>253</v>
-      </c>
-      <c r="F8" s="8">
-        <v>254</v>
-      </c>
-      <c r="G8" s="8">
-        <v>253</v>
-      </c>
-      <c r="H8" s="8">
-        <v>254</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>255</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="0"/>
-        <v>3,253,254,253,254,253,254,1,1,1,1,1,1,1,1,255,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <v>254</v>
-      </c>
-      <c r="D9" s="8">
-        <v>253</v>
-      </c>
-      <c r="E9" s="8">
-        <v>254</v>
-      </c>
-      <c r="F9" s="8">
-        <v>253</v>
-      </c>
-      <c r="G9" s="8">
-        <v>254</v>
-      </c>
-      <c r="H9" s="8">
-        <v>253</v>
-      </c>
-      <c r="I9" s="8">
-        <v>254</v>
-      </c>
-      <c r="J9" s="8">
-        <v>253</v>
-      </c>
-      <c r="K9" s="8">
-        <v>254</v>
-      </c>
-      <c r="L9" s="8">
-        <v>253</v>
-      </c>
-      <c r="M9" s="8">
-        <v>254</v>
-      </c>
-      <c r="N9" s="8">
-        <v>253</v>
-      </c>
-      <c r="O9" s="8">
-        <v>254</v>
-      </c>
-      <c r="P9" s="8">
-        <v>253</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>255</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="0"/>
-        <v>3,254,253,254,253,254,253,254,253,254,253,254,253,254,253,255,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>253</v>
-      </c>
-      <c r="D10" s="8">
-        <v>254</v>
-      </c>
-      <c r="E10" s="8">
-        <v>253</v>
-      </c>
-      <c r="F10" s="8">
-        <v>254</v>
-      </c>
-      <c r="G10" s="8">
-        <v>253</v>
-      </c>
-      <c r="H10" s="8">
-        <v>254</v>
-      </c>
-      <c r="I10" s="8">
-        <v>253</v>
-      </c>
-      <c r="J10" s="8">
-        <v>254</v>
-      </c>
-      <c r="K10" s="8">
-        <v>253</v>
-      </c>
-      <c r="L10" s="8">
-        <v>254</v>
-      </c>
-      <c r="M10" s="8">
-        <v>253</v>
-      </c>
-      <c r="N10" s="8">
-        <v>254</v>
-      </c>
-      <c r="O10" s="8">
-        <v>253</v>
-      </c>
-      <c r="P10" s="8">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>255</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="0"/>
-        <v>3,253,254,253,254,253,254,253,254,253,254,253,254,253,254,255,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>255</v>
-      </c>
-      <c r="C11" s="2">
-        <v>255</v>
-      </c>
-      <c r="D11" s="2">
-        <v>255</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8">
-        <v>253</v>
-      </c>
-      <c r="G11" s="8">
-        <v>254</v>
-      </c>
-      <c r="H11" s="8">
-        <v>253</v>
-      </c>
-      <c r="I11" s="8">
-        <v>254</v>
-      </c>
-      <c r="J11" s="8">
-        <v>253</v>
-      </c>
-      <c r="K11" s="8">
-        <v>254</v>
-      </c>
-      <c r="L11" s="8">
-        <v>253</v>
-      </c>
-      <c r="M11" s="8">
-        <v>254</v>
-      </c>
-      <c r="N11" s="8">
-        <v>253</v>
-      </c>
-      <c r="O11" s="8">
-        <v>254</v>
-      </c>
-      <c r="P11" s="8">
-        <v>253</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>255</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="0"/>
-        <v>255,255,255,3,253,254,253,254,253,254,253,254,253,254,253,255,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12">
-        <v>255</v>
-      </c>
-      <c r="C12" s="12">
-        <v>255</v>
-      </c>
-      <c r="D12" s="12">
-        <v>255</v>
-      </c>
-      <c r="E12" s="12">
-        <v>255</v>
-      </c>
-      <c r="F12" s="2">
-        <v>255</v>
-      </c>
-      <c r="G12" s="12">
-        <v>255</v>
-      </c>
-      <c r="H12" s="2">
-        <v>255</v>
-      </c>
-      <c r="I12" s="12">
-        <v>255</v>
-      </c>
-      <c r="J12" s="2">
-        <v>255</v>
-      </c>
-      <c r="K12" s="12">
-        <v>255</v>
-      </c>
-      <c r="L12" s="2">
-        <v>255</v>
-      </c>
-      <c r="M12" s="12">
-        <v>255</v>
-      </c>
-      <c r="N12" s="2">
-        <v>255</v>
-      </c>
-      <c r="O12" s="12">
-        <v>255</v>
-      </c>
-      <c r="P12" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>255</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="0"/>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/LavaAndAqua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A613321-BC95-CE48-A34E-5DA4DE016B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DB7161-FB22-EA4D-8814-F9237DD0FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28540" yWindow="4400" windowWidth="26880" windowHeight="17440" activeTab="23" xr2:uid="{8526E2AF-7541-C248-84F4-0C80968BCD32}"/>
+    <workbookView xWindow="28540" yWindow="4400" windowWidth="26880" windowHeight="17440" activeTab="1" xr2:uid="{8526E2AF-7541-C248-84F4-0C80968BCD32}"/>
   </bookViews>
   <sheets>
     <sheet name="Level_00" sheetId="2" r:id="rId1"/>
@@ -81,12 +81,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="101">
   <si>
     <t>PlayerStart</t>
-  </si>
-  <si>
-    <t>2,2</t>
   </si>
   <si>
     <t>6,8,</t>
@@ -970,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB54863-BF8F-E842-9641-9F7678583BFB}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S23"/>
+      <selection activeCell="S2" sqref="S2:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1032,10 +1029,7 @@
       <c r="Q1" s="3">
         <v>15</v>
       </c>
-      <c r="S1" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="S1" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A1),"]"), "[] = {")</f>
-        <v>uint8_t Level_00[] = {</v>
-      </c>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
@@ -1089,9 +1083,9 @@
       <c r="Q2" s="12">
         <v>255</v>
       </c>
-      <c r="S2" t="str">
-        <f>_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B2:Q2),",")</f>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
+      <c r="S2" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="S2" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A2),"]"), "[] = {")</f>
+        <v>uint8_t Level_00[] = {</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1147,8 +1141,8 @@
         <v>255</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S12" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B3:Q3),",")</f>
-        <v>255,0,0,0,0,0,0,0,0,255,255,255,255,255,255,255,</v>
+        <f>_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,C3:P3),",")</f>
+        <v>0,0,0,0,0,0,0,0,255,255,255,255,255,255,</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1204,8 +1198,8 @@
         <v>255</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,0,0,0,0,0,241,255,</v>
+        <f t="shared" ref="S4:S11" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,C4:P4),",")</f>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,241,</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1262,7 +1256,7 @@
       </c>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,255,255,255,255,255,255,255,</v>
+        <v>0,0,0,0,0,0,0,0,255,255,255,255,255,255,</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1319,7 +1313,7 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" si="0"/>
-        <v>255,0,0,0,0,0,0,0,0,255,0,0,0,0,0,255,</v>
+        <v>0,0,0,0,0,0,0,0,255,0,0,0,0,0,</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1376,7 +1370,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" si="0"/>
-        <v>255,255,0,0,0,0,0,0,0,255,0,0,250,0,0,255,</v>
+        <v>255,0,0,0,0,0,0,0,255,0,0,250,0,0,</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1433,7 +1427,7 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" si="0"/>
-        <v>255,255,255,0,250,0,0,0,0,255,0,0,0,0,0,255,</v>
+        <v>255,255,0,250,0,0,0,0,255,0,0,0,0,0,</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1490,7 +1484,7 @@
       </c>
       <c r="S9" t="str">
         <f t="shared" si="0"/>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
+        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1547,7 +1541,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
+        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1604,7 +1598,7 @@
       </c>
       <c r="S11" t="str">
         <f t="shared" si="0"/>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
+        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1659,9 +1653,9 @@
       <c r="Q12" s="12">
         <v>255</v>
       </c>
-      <c r="S12" t="str">
-        <f t="shared" si="0"/>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
+      <c r="S12" s="10" t="str">
+        <f>"};"</f>
+        <v>};</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1680,28 +1674,29 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
+      <c r="S13" s="10"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="21">
+      <c r="C14" s="33">
         <v>239</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="28">
+        <v>100</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -1723,25 +1718,29 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="28">
+        <v>101</v>
+      </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -1753,14 +1752,18 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="28">
+        <v>102</v>
+      </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -1771,7 +1774,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -1783,14 +1786,18 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="28">
+        <v>103</v>
+      </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1804,15 +1811,23 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="34">
+        <v>235</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="28">
+        <v>104</v>
+      </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1820,20 +1835,32 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="7"/>
+      <c r="S18" s="10" t="str">
+        <f>"};"</f>
+        <v>};</v>
+      </c>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="34">
+        <v>236</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="28">
+        <v>105</v>
+      </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -1853,9 +1880,13 @@
       <c r="F20" s="25"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="28">
+        <v>106</v>
+      </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -1874,14 +1905,18 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="28">
+        <v>107</v>
+      </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="8"/>
@@ -1900,14 +1935,18 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="28">
+        <v>108</v>
+      </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="K22" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
       <c r="N22" s="8"/>
@@ -1921,15 +1960,23 @@
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="30">
+        <v>252</v>
+      </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="28">
+        <v>109</v>
+      </c>
       <c r="J23" s="8"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -1937,24 +1984,29 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="32">
+        <v>238</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>92</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="28">
+        <v>110</v>
+      </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1974,9 +2026,13 @@
       <c r="F25" s="25"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="28">
+        <v>111</v>
+      </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="K25" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -1984,7 +2040,6 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -1995,9 +2050,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="28">
+        <v>112</v>
+      </c>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -2013,9 +2072,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="28">
+        <v>113</v>
+      </c>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="K27" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -2031,15 +2094,307 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="28">
+        <v>114</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I29" s="28">
+        <v>115</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I30" s="28">
+        <v>116</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I31" s="28">
+        <v>117</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I32" s="28">
+        <v>118</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="28">
+        <v>119</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="28">
+        <v>120</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I35" s="28">
+        <v>121</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I36" s="28">
+        <v>122</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="28">
+        <v>123</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="28">
+        <v>124</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="28">
+        <v>125</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="28">
+        <v>126</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="28">
+        <v>127</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I42" s="28">
+        <v>128</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="28">
+        <v>129</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="28">
+        <v>130</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="28">
+        <v>131</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="28">
+        <v>132</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I47" s="28">
+        <v>133</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I48" s="28">
+        <v>134</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="28">
+        <v>135</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I50" s="28">
+        <v>136</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="28">
+        <v>137</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I52" s="28">
+        <v>138</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="28">
+        <v>139</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="28">
+        <v>140</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="28">
+        <v>141</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="28">
+        <v>142</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="28">
+        <v>143</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="28">
+        <v>144</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="28">
+        <v>145</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="28">
+        <v>146</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I61" s="28">
+        <v>147</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="28">
+        <v>148</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="28">
+        <v>149</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="28">
+        <v>150</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2773,7 +3128,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -2783,7 +3138,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2806,7 +3161,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -2816,19 +3171,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -2840,7 +3195,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -2850,7 +3205,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2862,7 +3217,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -2874,7 +3229,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -2884,7 +3239,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -2910,7 +3265,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2935,7 +3290,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -2961,7 +3316,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -2981,7 +3336,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -2991,7 +3346,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3011,7 +3366,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -3021,7 +3376,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -3047,7 +3402,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -3073,7 +3428,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3099,7 +3454,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -3127,7 +3482,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -3149,7 +3504,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -3171,7 +3526,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3185,7 +3540,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -3194,7 +3549,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -3203,7 +3558,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -3211,7 +3566,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -3219,7 +3574,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -3227,7 +3582,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -3235,7 +3590,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -3243,7 +3598,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -3251,7 +3606,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -3259,7 +3614,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -3267,7 +3622,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -3275,7 +3630,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -3283,7 +3638,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -3291,7 +3646,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -3299,7 +3654,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -3307,7 +3662,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4043,7 +4398,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -4053,7 +4408,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -4076,7 +4431,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -4086,19 +4441,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -4110,7 +4465,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -4120,7 +4475,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -4132,7 +4487,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -4144,7 +4499,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -4154,7 +4509,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -4180,7 +4535,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -4205,7 +4560,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -4231,7 +4586,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -4251,7 +4606,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -4261,7 +4616,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -4281,7 +4636,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -4291,7 +4646,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -4317,7 +4672,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -4343,7 +4698,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -4369,7 +4724,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -4397,7 +4752,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -4419,7 +4774,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -4441,7 +4796,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -4455,7 +4810,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -4464,7 +4819,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -4473,7 +4828,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -4481,7 +4836,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -4489,7 +4844,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -4497,7 +4852,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -4505,7 +4860,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -4513,7 +4868,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -4521,7 +4876,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -4529,7 +4884,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -4537,7 +4892,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -4545,7 +4900,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -4553,7 +4908,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -4561,7 +4916,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -4569,7 +4924,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -4577,7 +4932,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -4585,7 +4940,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -4593,7 +4948,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -4601,7 +4956,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -4609,7 +4964,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -4617,7 +4972,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -4625,7 +4980,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -4633,7 +4988,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -4641,7 +4996,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -4649,7 +5004,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -4657,7 +5012,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -4665,7 +5020,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -4673,7 +5028,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -4681,7 +5036,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -4689,7 +5044,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -4697,7 +5052,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -4705,7 +5060,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -4713,7 +5068,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -4721,7 +5076,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -4729,7 +5084,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -4737,7 +5092,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5473,7 +5828,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -5483,7 +5838,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -5506,7 +5861,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -5516,19 +5871,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -5540,7 +5895,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -5550,7 +5905,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -5562,7 +5917,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -5574,7 +5929,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -5584,7 +5939,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -5610,7 +5965,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -5635,7 +5990,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -5661,7 +6016,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -5681,7 +6036,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -5691,7 +6046,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -5711,7 +6066,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -5721,7 +6076,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -5747,7 +6102,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -5773,7 +6128,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -5799,7 +6154,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -5827,7 +6182,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -5849,7 +6204,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -5871,7 +6226,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -5885,7 +6240,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -5894,7 +6249,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -5903,7 +6258,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -5911,7 +6266,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -5919,7 +6274,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -5927,7 +6282,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -5935,7 +6290,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -5943,7 +6298,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -5951,7 +6306,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -5959,7 +6314,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -5967,7 +6322,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -5975,7 +6330,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -5983,7 +6338,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -5991,7 +6346,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -5999,7 +6354,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -6007,7 +6362,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -6015,7 +6370,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -6023,7 +6378,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -6031,7 +6386,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -6039,7 +6394,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -6047,7 +6402,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -6055,7 +6410,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -6063,7 +6418,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -6071,7 +6426,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -6079,7 +6434,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -6087,7 +6442,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -6095,7 +6450,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -6103,7 +6458,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -6111,7 +6466,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -6119,7 +6474,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -6127,7 +6482,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -6135,7 +6490,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -6143,7 +6498,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -6151,7 +6506,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -6159,7 +6514,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -6167,7 +6522,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6902,7 +7257,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -6912,7 +7267,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -6935,7 +7290,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -6945,19 +7300,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -6969,7 +7324,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -6979,7 +7334,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -6991,7 +7346,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -7003,7 +7358,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -7013,7 +7368,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -7039,7 +7394,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -7064,7 +7419,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -7090,7 +7445,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -7110,7 +7465,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -7120,7 +7475,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -7140,7 +7495,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -7150,7 +7505,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -7176,7 +7531,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -7202,7 +7557,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -7228,7 +7583,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -7256,7 +7611,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -7278,7 +7633,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -7300,7 +7655,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -7314,7 +7669,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -7323,7 +7678,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -7332,7 +7687,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -7340,7 +7695,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -7348,7 +7703,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -7356,7 +7711,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -7364,7 +7719,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -7372,7 +7727,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -7380,7 +7735,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -7388,7 +7743,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -7396,7 +7751,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -7404,7 +7759,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -7412,7 +7767,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -7420,7 +7775,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -7428,7 +7783,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -7436,7 +7791,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -7444,7 +7799,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -7452,7 +7807,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -7460,7 +7815,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -7468,7 +7823,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -7476,7 +7831,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -7484,7 +7839,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -7492,7 +7847,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -7500,7 +7855,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -7508,7 +7863,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -7516,7 +7871,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -7524,7 +7879,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -7532,7 +7887,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -7540,7 +7895,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -7548,7 +7903,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -7556,7 +7911,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -7564,7 +7919,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -7572,7 +7927,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -7580,7 +7935,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -7588,7 +7943,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -7596,7 +7951,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -8331,7 +8686,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -8341,7 +8696,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -8364,7 +8719,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -8374,19 +8729,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -8398,7 +8753,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -8408,7 +8763,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -8420,7 +8775,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -8432,7 +8787,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -8442,7 +8797,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -8468,7 +8823,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -8493,7 +8848,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -8519,7 +8874,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -8539,7 +8894,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -8549,7 +8904,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -8569,7 +8924,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -8579,7 +8934,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -8599,7 +8954,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -8609,7 +8964,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -8635,7 +8990,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -8661,7 +9016,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -8689,7 +9044,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -8711,7 +9066,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -8733,7 +9088,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -8747,7 +9102,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -8756,7 +9111,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -8765,7 +9120,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -8773,7 +9128,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -8781,7 +9136,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -8789,7 +9144,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -8797,7 +9152,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -8805,7 +9160,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -8813,7 +9168,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -8821,7 +9176,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -8829,7 +9184,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -8837,7 +9192,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -8845,7 +9200,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -8853,7 +9208,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -8861,7 +9216,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -8869,7 +9224,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -8877,7 +9232,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -8885,7 +9240,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -8893,7 +9248,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -8901,7 +9256,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -8909,7 +9264,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -8917,7 +9272,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -8925,7 +9280,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -8933,7 +9288,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -8941,7 +9296,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -8949,7 +9304,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -8957,7 +9312,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -8965,7 +9320,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -8973,7 +9328,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -8981,7 +9336,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -8989,7 +9344,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -8997,7 +9352,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -9005,7 +9360,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -9013,7 +9368,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -9021,7 +9376,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -9029,7 +9384,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +10119,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -9774,7 +10129,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -9797,7 +10152,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -9807,19 +10162,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -9831,7 +10186,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -9841,7 +10196,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -9853,7 +10208,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -9865,7 +10220,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -9875,7 +10230,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -9901,7 +10256,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -9926,7 +10281,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -9952,7 +10307,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -9972,7 +10327,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -9982,7 +10337,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -10002,7 +10357,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -10012,7 +10367,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -10032,7 +10387,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -10042,7 +10397,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -10068,7 +10423,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -10094,7 +10449,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -10122,7 +10477,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -10144,7 +10499,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -10166,7 +10521,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -10180,7 +10535,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -10189,7 +10544,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -10198,7 +10553,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -10206,7 +10561,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -10214,7 +10569,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -10222,7 +10577,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -10230,7 +10585,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -10238,7 +10593,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -10246,7 +10601,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -10254,7 +10609,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -10262,7 +10617,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -10270,7 +10625,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -10278,7 +10633,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -10286,7 +10641,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -10294,7 +10649,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -10302,7 +10657,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -10310,7 +10665,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -10318,7 +10673,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -10326,7 +10681,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -10334,7 +10689,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -10342,7 +10697,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -10350,7 +10705,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -10358,7 +10713,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -10366,7 +10721,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -10374,7 +10729,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -10382,7 +10737,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -10390,7 +10745,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -10398,7 +10753,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -10406,7 +10761,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -10414,7 +10769,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -10422,7 +10777,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -10430,7 +10785,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -10438,7 +10793,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -10446,7 +10801,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -10454,7 +10809,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -10462,7 +10817,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -11197,7 +11552,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -11207,7 +11562,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -11230,7 +11585,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -11240,19 +11595,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -11264,7 +11619,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -11274,7 +11629,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -11286,7 +11641,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -11298,7 +11653,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -11308,7 +11663,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -11334,7 +11689,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -11359,7 +11714,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -11385,7 +11740,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -11405,7 +11760,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -11415,7 +11770,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -11435,7 +11790,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -11445,7 +11800,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -11465,7 +11820,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -11475,7 +11830,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -11501,7 +11856,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -11527,7 +11882,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -11555,7 +11910,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -11577,7 +11932,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -11599,7 +11954,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -11613,7 +11968,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -11622,7 +11977,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -11631,7 +11986,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -11639,7 +11994,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -11647,7 +12002,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -11655,7 +12010,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -11663,7 +12018,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -11671,7 +12026,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -11679,7 +12034,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -11687,7 +12042,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -11695,7 +12050,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -11703,7 +12058,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -11711,7 +12066,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -11719,7 +12074,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -11727,7 +12082,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -11735,7 +12090,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -11743,7 +12098,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -11751,7 +12106,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -11759,7 +12114,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -11767,7 +12122,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -11775,7 +12130,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -11783,7 +12138,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -11791,7 +12146,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -11799,7 +12154,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -11807,7 +12162,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -11815,7 +12170,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -11823,7 +12178,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -11831,7 +12186,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -11839,7 +12194,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -11847,7 +12202,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -11855,7 +12210,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -11863,7 +12218,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -11871,7 +12226,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -11879,7 +12234,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -11887,7 +12242,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -11895,7 +12250,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -12630,7 +12985,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -12640,7 +12995,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -12663,7 +13018,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -12673,19 +13028,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -12697,7 +13052,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -12707,7 +13062,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -12719,7 +13074,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -12731,7 +13086,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -12741,7 +13096,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -12767,7 +13122,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -12792,7 +13147,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -12818,7 +13173,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -12838,7 +13193,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -12848,7 +13203,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -12868,7 +13223,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -12878,7 +13233,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -12898,7 +13253,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -12908,7 +13263,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -12934,7 +13289,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -12960,7 +13315,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -12988,7 +13343,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -13010,7 +13365,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -13032,7 +13387,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -13046,7 +13401,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -13055,7 +13410,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -13064,7 +13419,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -13072,7 +13427,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -13080,7 +13435,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -13088,7 +13443,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -13096,7 +13451,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -13104,7 +13459,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -13112,7 +13467,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -13120,7 +13475,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -13128,7 +13483,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -13136,7 +13491,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -13144,7 +13499,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -13152,7 +13507,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -13160,7 +13515,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -13168,7 +13523,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -13176,7 +13531,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -13184,7 +13539,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -13192,7 +13547,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -13200,7 +13555,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -13208,7 +13563,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -13216,7 +13571,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -13224,7 +13579,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -13232,7 +13587,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -13240,7 +13595,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -13248,7 +13603,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -13256,7 +13611,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -13264,7 +13619,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -13272,7 +13627,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -13280,7 +13635,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -13288,7 +13643,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -13296,7 +13651,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -13304,7 +13659,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -13312,7 +13667,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -13320,7 +13675,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -13328,7 +13683,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.2">
@@ -13336,7 +13691,7 @@
         <v>151</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.2">
@@ -13344,7 +13699,7 @@
         <v>152</v>
       </c>
       <c r="K66" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.2">
@@ -13352,7 +13707,7 @@
         <v>153</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.2">
@@ -13360,7 +13715,7 @@
         <v>154</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.2">
@@ -13368,7 +13723,7 @@
         <v>155</v>
       </c>
       <c r="K69" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.2">
@@ -13376,7 +13731,7 @@
         <v>156</v>
       </c>
       <c r="K70" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.2">
@@ -13384,7 +13739,7 @@
         <v>157</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.2">
@@ -13392,7 +13747,7 @@
         <v>158</v>
       </c>
       <c r="K72" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="9:11" x14ac:dyDescent="0.2">
@@ -13400,7 +13755,7 @@
         <v>159</v>
       </c>
       <c r="K73" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.2">
@@ -13408,7 +13763,7 @@
         <v>160</v>
       </c>
       <c r="K74" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.2">
@@ -13416,7 +13771,7 @@
         <v>161</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.2">
@@ -13424,7 +13779,7 @@
         <v>162</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.2">
@@ -13432,7 +13787,7 @@
         <v>163</v>
       </c>
       <c r="K77" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="9:11" x14ac:dyDescent="0.2">
@@ -13440,7 +13795,7 @@
         <v>164</v>
       </c>
       <c r="K78" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="9:11" x14ac:dyDescent="0.2">
@@ -13448,7 +13803,7 @@
         <v>165</v>
       </c>
       <c r="K79" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -14184,7 +14539,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -14194,7 +14549,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -14217,7 +14572,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -14227,19 +14582,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -14251,7 +14606,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -14261,7 +14616,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -14273,7 +14628,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -14285,7 +14640,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -14295,7 +14650,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -14321,7 +14676,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -14346,7 +14701,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -14372,7 +14727,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -14392,7 +14747,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -14402,7 +14757,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -14422,7 +14777,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -14432,7 +14787,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -14452,7 +14807,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -14462,7 +14817,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -14482,7 +14837,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
@@ -14492,7 +14847,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -14518,7 +14873,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -14546,7 +14901,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -14568,7 +14923,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -14590,7 +14945,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -14604,7 +14959,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -14613,7 +14968,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -14622,7 +14977,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -14630,7 +14985,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -14638,7 +14993,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -14646,7 +15001,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -14654,7 +15009,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -14662,7 +15017,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -14670,7 +15025,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -14678,7 +15033,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -14686,7 +15041,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -14694,7 +15049,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -14702,7 +15057,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -14710,7 +15065,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -14718,7 +15073,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -14726,7 +15081,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -14734,7 +15089,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -14742,7 +15097,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -14750,7 +15105,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -14758,7 +15113,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -14766,7 +15121,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -14774,7 +15129,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -14782,7 +15137,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -14790,7 +15145,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -14798,7 +15153,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -14806,7 +15161,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -14814,7 +15169,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -14822,7 +15177,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -14830,7 +15185,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -14838,7 +15193,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -14846,7 +15201,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -14854,7 +15209,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -14862,7 +15217,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -14870,7 +15225,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -14878,7 +15233,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -14886,7 +15241,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -15621,7 +15976,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -15631,7 +15986,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -15654,7 +16009,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -15664,19 +16019,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -15688,7 +16043,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -15698,7 +16053,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -15710,7 +16065,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -15722,7 +16077,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -15732,7 +16087,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -15758,7 +16113,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -15783,7 +16138,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -15809,7 +16164,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -15829,7 +16184,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -15839,7 +16194,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -15859,7 +16214,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -15869,7 +16224,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -15889,7 +16244,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -15899,7 +16254,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -15919,7 +16274,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
@@ -15929,7 +16284,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -15955,7 +16310,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -15983,7 +16338,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -16005,7 +16360,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -16027,7 +16382,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -16041,7 +16396,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -16050,7 +16405,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -16059,7 +16414,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -16067,7 +16422,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -16075,7 +16430,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -16083,7 +16438,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -16091,7 +16446,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -16099,7 +16454,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -16107,7 +16462,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -16115,7 +16470,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -16123,7 +16478,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -16131,7 +16486,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -16139,7 +16494,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -16147,7 +16502,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -16155,7 +16510,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -16163,7 +16518,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -16171,7 +16526,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -16179,7 +16534,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -16187,7 +16542,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -16195,7 +16550,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -16203,7 +16558,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -16211,7 +16566,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -16219,7 +16574,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -16227,7 +16582,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -16235,7 +16590,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -16243,7 +16598,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -16251,7 +16606,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -16259,7 +16614,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -16267,7 +16622,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -16275,7 +16630,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -16283,7 +16638,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -16291,7 +16646,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -16299,7 +16654,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -16307,7 +16662,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -16315,7 +16670,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -16323,7 +16678,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -16336,8 +16691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF569A0-6238-014B-9A83-432078AED957}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16396,10 +16751,7 @@
       <c r="Q1" s="3">
         <v>15</v>
       </c>
-      <c r="S1" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="S1" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A1),"]"), "[] = {")</f>
-        <v>uint8_t Level_01[] = {</v>
-      </c>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
@@ -16453,9 +16805,9 @@
       <c r="Q2" s="12">
         <v>255</v>
       </c>
-      <c r="S2" t="str">
-        <f>_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B2:Q2),",")</f>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
+      <c r="S2" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="S2" ca="1">_xlfn.CONCAT("uint8_t ", _xlfn.TEXTAFTER(CELL("filename",A2),"]"), "[] = {")</f>
+        <v>uint8_t Level_01[] = {</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -16511,8 +16863,8 @@
         <v>255</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S12" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,B3:Q3),",")</f>
-        <v>255,250,0,0,255,0,0,0,0,0,0,0,0,241,0,255,</v>
+        <f>_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,C3:P3),",")</f>
+        <v>250,0,0,255,0,0,0,0,0,0,0,0,241,0,</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -16568,8 +16920,8 @@
         <v>255</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="0"/>
-        <v>255,250,0,0,255,255,0,0,0,0,0,0,0,0,0,255,</v>
+        <f t="shared" ref="S4:S11" si="0">_xlfn.CONCAT(_xlfn.TEXTJOIN(",",FALSE,C4:P4),",")</f>
+        <v>250,0,0,255,255,0,0,0,0,0,0,0,0,0,</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -16626,7 +16978,7 @@
       </c>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
-        <v>255,250,0,0,0,0,0,0,0,0,0,0,255,255,255,255,</v>
+        <v>250,0,0,0,0,0,0,0,0,0,0,255,255,255,</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -16683,7 +17035,7 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" si="0"/>
-        <v>255,250,0,0,255,255,0,0,0,0,251,0,0,0,0,255,</v>
+        <v>250,0,0,255,255,0,0,0,0,251,0,0,0,0,</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -16740,7 +17092,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" si="0"/>
-        <v>255,250,0,0,255,0,0,0,0,0,0,0,255,255,0,255,</v>
+        <v>250,0,0,255,0,0,0,0,0,0,0,255,255,0,</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -16797,7 +17149,7 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" si="0"/>
-        <v>255,250,0,0,255,0,251,0,0,0,0,0,0,255,0,255,</v>
+        <v>250,0,0,255,0,251,0,0,0,0,0,0,255,0,</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -16854,7 +17206,7 @@
       </c>
       <c r="S9" t="str">
         <f t="shared" si="0"/>
-        <v>255,250,0,0,255,0,0,0,0,0,0,0,0,255,0,255,</v>
+        <v>250,0,0,255,0,0,0,0,0,0,0,0,255,0,</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -16911,7 +17263,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
-        <v>255,250,0,0,255,0,0,0,0,0,0,0,0,255,0,255,</v>
+        <v>250,0,0,255,0,0,0,0,0,0,0,0,255,0,</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -16968,7 +17320,7 @@
       </c>
       <c r="S11" t="str">
         <f t="shared" si="0"/>
-        <v>255,250,0,0,255,0,0,0,0,0,0,0,0,255,250,255,</v>
+        <v>250,0,0,255,0,0,0,0,0,0,0,0,255,250,</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -17023,9 +17375,9 @@
       <c r="Q12" s="12">
         <v>255</v>
       </c>
-      <c r="S12" t="str">
-        <f t="shared" si="0"/>
-        <v>255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,255,</v>
+      <c r="S12" s="10" t="str">
+        <f>"};"</f>
+        <v>};</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -17044,10 +17396,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
+      <c r="S13" s="10"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -17058,7 +17407,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -17087,7 +17436,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -17099,13 +17448,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -17117,7 +17466,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -17135,7 +17484,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -17147,7 +17496,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -17184,6 +17533,10 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="7"/>
+      <c r="S18" s="10" t="str">
+        <f>"};"</f>
+        <v>};</v>
+      </c>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -17238,7 +17591,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -17264,7 +17617,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -17345,10 +17698,7 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="10" t="str">
-        <f>"};"</f>
-        <v>};</v>
-      </c>
+      <c r="S25" s="10"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -18143,7 +18493,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -18153,7 +18503,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -18176,7 +18526,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -18186,19 +18536,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -18210,7 +18560,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -18220,7 +18570,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -18232,7 +18582,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -18244,7 +18594,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -18254,7 +18604,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -18280,7 +18630,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -18305,7 +18655,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -18331,7 +18681,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -18351,7 +18701,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -18361,7 +18711,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -18381,7 +18731,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -18391,7 +18741,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -18411,7 +18761,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -18421,7 +18771,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -18441,7 +18791,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
@@ -18451,7 +18801,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -18477,7 +18827,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -18505,7 +18855,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -18527,7 +18877,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -18549,7 +18899,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -18563,7 +18913,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -18572,7 +18922,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -18581,7 +18931,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -18589,7 +18939,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -18597,7 +18947,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -18605,7 +18955,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -18613,7 +18963,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -18621,7 +18971,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -18629,7 +18979,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -18637,7 +18987,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -18645,7 +18995,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -18653,7 +19003,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -18661,7 +19011,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -18669,7 +19019,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -18677,7 +19027,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -18685,7 +19035,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -18693,7 +19043,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -18701,7 +19051,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -18709,7 +19059,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -18717,7 +19067,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -18725,7 +19075,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -18733,7 +19083,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -18741,7 +19091,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -18749,7 +19099,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -18757,7 +19107,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -18765,7 +19115,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -18773,7 +19123,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -18781,7 +19131,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -18789,7 +19139,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -18797,7 +19147,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -18805,7 +19155,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -18813,7 +19163,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -18821,7 +19171,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -18829,7 +19179,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -18837,7 +19187,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -18845,7 +19195,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -19580,7 +19930,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -19590,7 +19940,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -19613,7 +19963,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -19623,19 +19973,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -19647,7 +19997,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -19657,7 +20007,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -19669,7 +20019,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -19681,7 +20031,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -19691,7 +20041,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -19711,7 +20061,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
@@ -19721,7 +20071,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -19740,7 +20090,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
@@ -19750,7 +20100,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -19776,7 +20126,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -19796,7 +20146,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -19806,7 +20156,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -19826,7 +20176,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -19836,7 +20186,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -19856,7 +20206,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -19866,7 +20216,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -19886,7 +20236,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
@@ -19896,7 +20246,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -19922,7 +20272,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -19950,7 +20300,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -19972,7 +20322,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -19994,7 +20344,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -20008,7 +20358,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -20017,7 +20367,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -20026,7 +20376,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -20034,7 +20384,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -20042,7 +20392,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -20050,7 +20400,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -20058,7 +20408,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -20066,7 +20416,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -20074,7 +20424,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -20082,7 +20432,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -20090,7 +20440,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -20098,7 +20448,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -20106,7 +20456,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -20114,7 +20464,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -20122,7 +20472,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -20130,7 +20480,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -20138,7 +20488,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -20146,7 +20496,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -20154,7 +20504,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -20162,7 +20512,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -20170,7 +20520,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -20178,7 +20528,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -20186,7 +20536,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -20194,7 +20544,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -20202,7 +20552,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -20210,7 +20560,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -20218,7 +20568,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -20226,7 +20576,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -20234,7 +20584,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -20242,7 +20592,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -20250,7 +20600,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -20258,7 +20608,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -20266,7 +20616,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -20274,7 +20624,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -20282,7 +20632,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -20290,7 +20640,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -21025,7 +21375,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -21035,7 +21385,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -21058,7 +21408,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -21068,19 +21418,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -21092,7 +21442,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -21102,7 +21452,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -21114,7 +21464,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -21126,7 +21476,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -21136,7 +21486,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -21156,7 +21506,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
@@ -21166,7 +21516,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -21185,7 +21535,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
@@ -21195,7 +21545,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -21221,7 +21571,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -21241,7 +21591,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -21251,7 +21601,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -21271,7 +21621,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -21281,7 +21631,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -21301,7 +21651,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -21311,7 +21661,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -21331,7 +21681,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
@@ -21341,7 +21691,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -21367,7 +21717,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -21395,7 +21745,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -21417,7 +21767,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -21439,7 +21789,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -21453,7 +21803,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -21462,7 +21812,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -21471,7 +21821,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -21479,7 +21829,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -21487,7 +21837,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -21495,7 +21845,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -21503,7 +21853,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -21511,7 +21861,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -21519,7 +21869,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -21527,7 +21877,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -21535,7 +21885,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -21543,7 +21893,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -21551,7 +21901,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -21559,7 +21909,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -21567,7 +21917,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -21575,7 +21925,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -21583,7 +21933,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -21591,7 +21941,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -21599,7 +21949,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -21607,7 +21957,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -21615,7 +21965,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -21623,7 +21973,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -21631,7 +21981,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -21639,7 +21989,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -21647,7 +21997,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -21655,7 +22005,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -21663,7 +22013,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -21671,7 +22021,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -21679,7 +22029,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -21687,7 +22037,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -21695,7 +22045,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -21703,7 +22053,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -21711,7 +22061,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -21719,7 +22069,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -21727,7 +22077,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -21735,7 +22085,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -22470,7 +22820,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -22480,7 +22830,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -22503,7 +22853,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -22513,19 +22863,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -22537,7 +22887,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -22547,7 +22897,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -22559,7 +22909,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -22571,7 +22921,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -22581,7 +22931,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -22601,7 +22951,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
@@ -22611,7 +22961,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -22630,7 +22980,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
@@ -22640,7 +22990,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -22666,7 +23016,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -22686,7 +23036,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -22696,7 +23046,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -22716,7 +23066,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -22726,7 +23076,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -22746,7 +23096,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -22756,7 +23106,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -22776,7 +23126,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
@@ -22786,7 +23136,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -22812,7 +23162,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -22840,7 +23190,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -22862,7 +23212,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -22884,7 +23234,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -22898,7 +23248,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -22907,7 +23257,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -22916,7 +23266,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -22924,7 +23274,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -22932,7 +23282,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -22940,7 +23290,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -22948,7 +23298,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -22956,7 +23306,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -22964,7 +23314,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -22972,7 +23322,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -22980,7 +23330,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -22988,7 +23338,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -22996,7 +23346,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -23004,7 +23354,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -23012,7 +23362,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -23020,7 +23370,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -23028,7 +23378,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -23036,7 +23386,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -23044,7 +23394,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -23052,7 +23402,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -23060,7 +23410,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -23068,7 +23418,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -23076,7 +23426,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -23084,7 +23434,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -23092,7 +23442,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -23100,7 +23450,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -23108,7 +23458,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -23116,7 +23466,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -23124,7 +23474,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -23132,7 +23482,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -23140,7 +23490,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -23148,7 +23498,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -23156,7 +23506,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -23164,7 +23514,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -23172,7 +23522,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -23180,7 +23530,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -23193,8 +23543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655026EB-4B17-194F-821D-685444497D8B}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23915,7 +24265,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -23925,7 +24275,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -23948,7 +24298,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -23958,19 +24308,19 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -23982,7 +24332,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -23992,7 +24342,7 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -24004,7 +24354,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -24016,7 +24366,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -24026,7 +24376,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -24046,7 +24396,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="2"/>
@@ -24056,7 +24406,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -24075,7 +24425,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="8"/>
@@ -24085,7 +24435,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -24111,7 +24461,7 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -24131,7 +24481,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -24141,7 +24491,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -24161,7 +24511,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -24171,7 +24521,7 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="2"/>
@@ -24191,7 +24541,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="8"/>
@@ -24201,7 +24551,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -24221,7 +24571,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="8"/>
@@ -24231,7 +24581,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -24257,7 +24607,7 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -24285,7 +24635,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -24307,7 +24657,7 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -24329,7 +24679,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -24343,7 +24693,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -24352,7 +24702,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -24361,7 +24711,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -24369,7 +24719,7 @@
         <v>118</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -24377,7 +24727,7 @@
         <v>119</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
@@ -24385,7 +24735,7 @@
         <v>120</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
@@ -24393,7 +24743,7 @@
         <v>121</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
@@ -24401,7 +24751,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
@@ -24409,7 +24759,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
@@ -24417,7 +24767,7 @@
         <v>124</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
@@ -24425,7 +24775,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
@@ -24433,7 +24783,7 @@
         <v>126</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
@@ -24441,7 +24791,7 @@
         <v>127</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
@@ -24449,7 +24799,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
@@ -24457,7 +24807,7 @@
         <v>129</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
@@ -24465,7 +24815,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
@@ -24473,7 +24823,7 @@
         <v>131</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
@@ -24481,7 +24831,7 @@
         <v>132</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -24489,7 +24839,7 @@
         <v>133</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
@@ -24497,7 +24847,7 @@
         <v>134</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
@@ -24505,7 +24855,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
@@ -24513,7 +24863,7 @@
         <v>136</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
@@ -24521,7 +24871,7 @@
         <v>137</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
@@ -24529,7 +24879,7 @@
         <v>138</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
@@ -24537,7 +24887,7 @@
         <v>139</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
@@ -24545,7 +24895,7 @@
         <v>140</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
@@ -24553,7 +24903,7 @@
         <v>141</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
@@ -24561,7 +24911,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
@@ -24569,7 +24919,7 @@
         <v>143</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
@@ -24577,7 +24927,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
@@ -24585,7 +24935,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
@@ -24593,7 +24943,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
@@ -24601,7 +24951,7 @@
         <v>147</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
@@ -24609,7 +24959,7 @@
         <v>148</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
@@ -24617,7 +24967,7 @@
         <v>149</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
@@ -24625,7 +24975,7 @@
         <v>150</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -25360,7 +25710,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -25389,7 +25739,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -25401,13 +25751,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -25419,7 +25769,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -25437,7 +25787,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -25449,7 +25799,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -25540,7 +25890,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -25566,7 +25916,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -26445,7 +26795,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -26474,7 +26824,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -26486,13 +26836,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -26504,7 +26854,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -26522,7 +26872,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -26534,7 +26884,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -26625,7 +26975,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -26651,7 +27001,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -27530,7 +27880,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -27559,7 +27909,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -27571,13 +27921,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -27589,7 +27939,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -27607,7 +27957,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -27619,7 +27969,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -27710,7 +28060,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -27736,7 +28086,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -28623,7 +28973,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -28652,7 +29002,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -28664,13 +29014,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -28682,7 +29032,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -28700,7 +29050,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -28712,7 +29062,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -28803,7 +29153,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -28829,7 +29179,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -29708,7 +30058,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -29737,7 +30087,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -29749,13 +30099,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -29767,7 +30117,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -29785,7 +30135,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -29797,7 +30147,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -29888,7 +30238,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -29914,7 +30264,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -30793,7 +31143,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -30822,7 +31172,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -30834,13 +31184,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -30852,7 +31202,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -30870,7 +31220,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -30882,7 +31232,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -30973,7 +31323,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -30999,7 +31349,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
@@ -31878,7 +32228,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
@@ -31907,7 +32257,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
@@ -31919,13 +32269,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -31937,7 +32287,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
@@ -31955,7 +32305,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T16" s="7"/>
     </row>
@@ -31967,7 +32317,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
@@ -32058,7 +32408,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="8"/>
@@ -32084,7 +32434,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
